--- a/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
+++ b/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="職員テーブル" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="資料目録テーブル" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="資料台帳テーブル" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="利用者テーブル" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="分類コードテーブル" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="職員台帳テーブル" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="会員台帳テーブル" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="資料目録テーブル" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="資料台帳テーブル" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="貸出台帳テーブル" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="分類コードテーブル" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -119,6 +120,48 @@
     <t xml:space="preserve">DATETIME</t>
   </si>
   <si>
+    <t xml:space="preserve">members（会員台帳テーブル）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会員ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_tel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入会年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joined_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値＝現在の日時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退会年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canceled_at</t>
+  </si>
+  <si>
     <t xml:space="preserve">documents_catalog（資料目録テーブル）</t>
   </si>
   <si>
@@ -176,70 +219,58 @@
     <t xml:space="preserve">外部キー→資料台帳テーブル.資料ID</t>
   </si>
   <si>
+    <t xml:space="preserve">lending_ledger（貸出台帳テーブル）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> auto increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10もしくは13桁、外部キー→資料目録テーブル.ISBN番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入荷年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廃棄年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discarded_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
     <t xml:space="preserve">documents_ledger（資料台帳テーブル）</t>
   </si>
   <si>
-    <t xml:space="preserve"> auto increment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10もしくは13桁、外部キー→資料目録テーブル.ISBN番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入荷年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">added_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期値＝現在の日時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">廃棄年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discarded_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customers（利用者テーブル）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利用者ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_tel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_birthday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入会年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joined_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">退会年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canceled_at</t>
+    <t xml:space="preserve">CPK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">複合主キー、外部キー→会員台帳テーブル.会員ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">複合主キー、外部キー→資料台帳テーブル.資料ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貸出年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lent_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">返却期日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return_deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">返却年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returned_at</t>
   </si>
   <si>
     <t xml:space="preserve">category_codes（分類コードテーブル）</t>
@@ -548,10 +579,10 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="14.14"/>
@@ -595,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -616,7 +647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -635,7 +666,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -654,7 +685,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -673,7 +704,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -692,7 +723,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -713,7 +744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -749,13 +780,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.41"/>
@@ -800,7 +831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -808,11 +839,9 @@
         <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
@@ -820,15 +849,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -839,55 +868,53 @@
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>255</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>255</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -895,43 +922,83 @@
       <c r="D7" s="7" t="n">
         <v>255</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -952,18 +1019,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="10.57"/>
   </cols>
   <sheetData>
@@ -972,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1003,17 +1070,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>15</v>
+      </c>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1021,101 +1090,118 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>255</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="n">
         <v>255</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>255</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="11"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>255</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="9"/>
       <c r="F8" s="11"/>
       <c r="G8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1136,18 +1222,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="10.57"/>
   </cols>
   <sheetData>
@@ -1156,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1187,17 +1273,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1205,34 +1291,38 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>255</v>
-      </c>
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -1246,115 +1336,56 @@
       <c r="F5" s="11"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>15</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="n">
         <v>255</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1375,13 +1406,193 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="10.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>255</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="14.14"/>
@@ -1394,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1427,10 +1638,10 @@
     </row>
     <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
@@ -1443,15 +1654,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>

--- a/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
+++ b/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="職員台帳テーブル" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="86">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -210,40 +210,37 @@
     <t xml:space="preserve">published_at</t>
   </si>
   <si>
+    <t xml:space="preserve">document_ledger（資料台帳テーブル）</t>
+  </si>
+  <si>
     <t xml:space="preserve">資料ID</t>
   </si>
   <si>
     <t xml:space="preserve">document_id</t>
   </si>
   <si>
-    <t xml:space="preserve">外部キー→資料台帳テーブル.資料ID</t>
+    <t xml:space="preserve"> auto increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10もしくは13桁、外部キー→資料目録テーブル.ISBN番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入荷年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廃棄年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discarded_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
   </si>
   <si>
     <t xml:space="preserve">lending_ledger（貸出台帳テーブル）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> auto increment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10もしくは13桁、外部キー→資料目録テーブル.ISBN番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入荷年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">added_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">廃棄年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discarded_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">documents_ledger（資料台帳テーブル）</t>
   </si>
   <si>
     <t xml:space="preserve">CPK</t>
@@ -1019,10 +1016,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1184,25 +1181,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -1242,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1275,10 +1254,10 @@
     </row>
     <row r="3" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
@@ -1291,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1314,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1338,10 +1317,10 @@
     </row>
     <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
@@ -1357,10 +1336,10 @@
     </row>
     <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>30</v>
@@ -1375,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -1408,8 +1387,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1426,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1472,18 +1451,18 @@
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>11</v>
@@ -1493,18 +1472,18 @@
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>30</v>
@@ -1520,10 +1499,10 @@
     </row>
     <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
@@ -1537,10 +1516,10 @@
     </row>
     <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>30</v>
@@ -1555,7 +1534,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -1605,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1641,7 +1620,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
@@ -1654,15 +1633,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>

--- a/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
+++ b/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="職員台帳テーブル" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">テーブル名</t>
   </si>
   <si>
-    <t xml:space="preserve">staffs（職員テーブル）</t>
+    <t xml:space="preserve">staff（職員テーブル）</t>
   </si>
   <si>
     <t xml:space="preserve">項目</t>
@@ -120,7 +120,7 @@
     <t xml:space="preserve">DATETIME</t>
   </si>
   <si>
-    <t xml:space="preserve">members（会員台帳テーブル）</t>
+    <t xml:space="preserve">member（会員台帳テーブル）</t>
   </si>
   <si>
     <t xml:space="preserve">会員ID</t>
@@ -162,7 +162,7 @@
     <t xml:space="preserve">canceled_at</t>
   </si>
   <si>
-    <t xml:space="preserve">documents_catalog（資料目録テーブル）</t>
+    <t xml:space="preserve">document_catalog（資料目録テーブル）</t>
   </si>
   <si>
     <t xml:space="preserve">ISBN番号</t>
@@ -270,7 +270,7 @@
     <t xml:space="preserve">returned_at</t>
   </si>
   <si>
-    <t xml:space="preserve">category_codes（分類コードテーブル）</t>
+    <t xml:space="preserve">category_code（分類コードテーブル）</t>
   </si>
   <si>
     <t xml:space="preserve">code</t>
@@ -576,7 +576,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -780,7 +780,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1018,8 +1018,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1567,8 +1567,8 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
+++ b/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
@@ -5,15 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="職員台帳テーブル" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="会員台帳テーブル" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="資料目録テーブル" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="資料台帳テーブル" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="貸出台帳テーブル" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="分類コードテーブル" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="ユーザ台帳テーブル" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="資料目録テーブル" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="資料台帳テーブル" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="貸出台帳テーブル" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="分類コードテーブル" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
   <si>
-    <t xml:space="preserve">staff（職員テーブル）</t>
+    <t xml:space="preserve">user（ユーザ台帳テーブル）</t>
   </si>
   <si>
     <t xml:space="preserve">項目</t>
@@ -54,10 +53,10 @@
     <t xml:space="preserve">備考</t>
   </si>
   <si>
-    <t xml:space="preserve">職員ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">staff_id</t>
+    <t xml:space="preserve">ユーザID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id</t>
   </si>
   <si>
     <t xml:space="preserve">INTEGER</t>
@@ -75,7 +74,7 @@
     <t xml:space="preserve">氏名</t>
   </si>
   <si>
-    <t xml:space="preserve">staff_name</t>
+    <t xml:space="preserve">user_name</t>
   </si>
   <si>
     <t xml:space="preserve">VARCHAR</t>
@@ -84,25 +83,25 @@
     <t xml:space="preserve">住所</t>
   </si>
   <si>
-    <t xml:space="preserve">staff_address</t>
+    <t xml:space="preserve">address</t>
   </si>
   <si>
     <t xml:space="preserve">電話番号</t>
   </si>
   <si>
-    <t xml:space="preserve">staff_tel</t>
+    <t xml:space="preserve">tel</t>
   </si>
   <si>
     <t xml:space="preserve">メールアドレス</t>
   </si>
   <si>
-    <t xml:space="preserve">staff_email</t>
+    <t xml:space="preserve">email</t>
   </si>
   <si>
     <t xml:space="preserve">パスワード</t>
   </si>
   <si>
-    <t xml:space="preserve">staff_password</t>
+    <t xml:space="preserve">password</t>
   </si>
   <si>
     <t xml:space="preserve">6~15</t>
@@ -114,133 +113,124 @@
     <t xml:space="preserve">生年月日</t>
   </si>
   <si>
-    <t xml:space="preserve">staff_birthday</t>
+    <t xml:space="preserve">birthday</t>
   </si>
   <si>
     <t xml:space="preserve">DATETIME</t>
   </si>
   <si>
-    <t xml:space="preserve">member（会員台帳テーブル）</t>
+    <t xml:space="preserve">入会年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joined_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値＝現在の日時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退会年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canceled_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクセス権限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOLEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値＝false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_catalog（資料目録テーブル）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISBN番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isbn_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10もしくは13桁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分類コード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0~9の整数、 外部キー→分類コードテーブル.分類コード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">著者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出版社</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出版日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">published_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_ledger（資料台帳テーブル）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> auto increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10もしくは13桁、外部キー→資料目録テーブル.ISBN番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入荷年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廃棄年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discarded_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lending_ledger（貸出台帳テーブル）</t>
   </si>
   <si>
     <t xml:space="preserve">会員ID</t>
   </si>
   <si>
     <t xml:space="preserve">member_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_tel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_birthday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入会年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joined_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期値＝現在の日時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">退会年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canceled_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document_catalog（資料目録テーブル）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISBN番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isbn_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10もしくは13桁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類コード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">classification_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0~9の整数、 外部キー→分類コードテーブル.分類コード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">著者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出版社</t>
-  </si>
-  <si>
-    <t xml:space="preserve">publisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出版日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">published_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document_ledger（資料台帳テーブル）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> auto increment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10もしくは13桁、外部キー→資料目録テーブル.ISBN番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入荷年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">added_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">廃棄年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discarded_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lending_ledger（貸出台帳テーブル）</t>
   </si>
   <si>
     <t xml:space="preserve">CPK</t>
@@ -573,16 +563,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="10.57"/>
   </cols>
@@ -623,7 +614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -644,7 +635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -663,7 +654,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -682,7 +673,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -701,7 +692,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -720,7 +711,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -741,7 +732,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -757,6 +748,59 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -777,10 +821,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -797,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -828,17 +872,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>15</v>
+      </c>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
@@ -846,15 +892,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -865,53 +911,55 @@
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>255</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -919,84 +967,26 @@
       <c r="D7" s="7" t="n">
         <v>255</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-    </row>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -1018,16 +1008,16 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="10.57"/>
   </cols>
   <sheetData>
@@ -1036,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1067,19 +1057,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1087,100 +1075,109 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="F5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>255</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="11"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="11" t="n">
         <v>255</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="11"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-    </row>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
@@ -1203,8 +1200,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1221,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1252,75 +1249,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D4" s="11"/>
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>255</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
@@ -1330,16 +1325,14 @@
         <v>12</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>30</v>
@@ -1354,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -1385,190 +1378,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="10.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>255</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1584,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1615,12 +1428,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
@@ -1633,15 +1446,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>

--- a/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
+++ b/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザ台帳テーブル" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
   <si>
-    <t xml:space="preserve">user（ユーザ台帳テーブル）</t>
+    <t xml:space="preserve">member（ユーザ台帳テーブル）</t>
   </si>
   <si>
     <t xml:space="preserve">項目</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">ユーザID</t>
   </si>
   <si>
-    <t xml:space="preserve">user_id</t>
+    <t xml:space="preserve">member_id</t>
   </si>
   <si>
     <t xml:space="preserve">INTEGER</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">氏名</t>
   </si>
   <si>
-    <t xml:space="preserve">user_name</t>
+    <t xml:space="preserve">member_name</t>
   </si>
   <si>
     <t xml:space="preserve">VARCHAR</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">6~15</t>
   </si>
   <si>
-    <t xml:space="preserve">自動生成</t>
+    <t xml:space="preserve">自動生成、初期値＝’himitu’</t>
   </si>
   <si>
     <t xml:space="preserve">生年月日</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">birthday</t>
   </si>
   <si>
-    <t xml:space="preserve">DATETIME</t>
+    <t xml:space="preserve">DATE</t>
   </si>
   <si>
     <t xml:space="preserve">入会年月日</t>
@@ -225,12 +225,6 @@
   </si>
   <si>
     <t xml:space="preserve">lending_ledger（貸出台帳テーブル）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_id</t>
   </si>
   <si>
     <t xml:space="preserve">CPK</t>
@@ -565,8 +559,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -823,8 +817,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1008,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1200,8 +1194,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1251,10 +1245,10 @@
     </row>
     <row r="3" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
@@ -1264,10 +1258,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1285,18 +1279,18 @@
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>30</v>
@@ -1312,10 +1306,10 @@
     </row>
     <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
@@ -1329,10 +1323,10 @@
     </row>
     <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>30</v>
@@ -1380,7 +1374,7 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1397,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1433,7 +1427,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
@@ -1446,15 +1440,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>

--- a/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
+++ b/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
@@ -83,25 +83,25 @@
     <t xml:space="preserve">住所</t>
   </si>
   <si>
-    <t xml:space="preserve">address</t>
+    <t xml:space="preserve">member_address</t>
   </si>
   <si>
     <t xml:space="preserve">電話番号</t>
   </si>
   <si>
-    <t xml:space="preserve">tel</t>
+    <t xml:space="preserve">member_tel</t>
   </si>
   <si>
     <t xml:space="preserve">メールアドレス</t>
   </si>
   <si>
-    <t xml:space="preserve">email</t>
+    <t xml:space="preserve">member_email</t>
   </si>
   <si>
     <t xml:space="preserve">パスワード</t>
   </si>
   <si>
-    <t xml:space="preserve">password</t>
+    <t xml:space="preserve">member_password</t>
   </si>
   <si>
     <t xml:space="preserve">6~15</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">生年月日</t>
   </si>
   <si>
-    <t xml:space="preserve">birthday</t>
+    <t xml:space="preserve">member_birthday</t>
   </si>
   <si>
     <t xml:space="preserve">DATE</t>
@@ -560,7 +560,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -818,7 +818,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
+++ b/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザ台帳テーブル" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="82">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -59,115 +59,118 @@
     <t xml:space="preserve">member_id</t>
   </si>
   <si>
+    <t xml:space="preserve">SERIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オートインクリメント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氏名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電話番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_tel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メールアドレス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パスワード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6~15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自動生成、初期値＝’himitu’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">member_birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入会年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joined_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値＝現在の日時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退会年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canceled_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アクセス権限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOLEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値＝false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_catalog（資料目録テーブル）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISBN番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isbn_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10もしくは13桁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資料名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分類コード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_code</t>
+  </si>
+  <si>
     <t xml:space="preserve">INTEGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">○</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オートインクリメント</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氏名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">電話番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_tel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メールアドレス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パスワード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6~15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自動生成、初期値＝’himitu’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">member_birthday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入会年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joined_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期値＝現在の日時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">退会年月日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canceled_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アクセス権限</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOOLEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期値＝false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document_catalog（資料目録テーブル）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISBN番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isbn_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10もしくは13桁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">資料名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分類コード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_code</t>
   </si>
   <si>
     <t xml:space="preserve">FK</t>
@@ -559,8 +562,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -818,7 +821,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -916,25 +919,25 @@
         <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -950,10 +953,10 @@
     </row>
     <row r="7" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -967,10 +970,10 @@
     </row>
     <row r="8" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>30</v>
@@ -1002,7 +1005,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1020,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1053,13 +1056,13 @@
     </row>
     <row r="3" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="7" t="s">
@@ -1069,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1089,18 +1092,18 @@
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1119,10 @@
     </row>
     <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
@@ -1134,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -1212,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1251,46 +1254,46 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>30</v>
@@ -1306,10 +1309,10 @@
     </row>
     <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
@@ -1323,10 +1326,10 @@
     </row>
     <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>30</v>
@@ -1341,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -1391,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1427,10 +1430,10 @@
         <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
@@ -1440,15 +1443,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>

--- a/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
+++ b/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザ台帳テーブル" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="93">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -146,6 +146,30 @@
     <t xml:space="preserve">初期値＝false</t>
   </si>
   <si>
+    <t xml:space="preserve">登録日時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATETIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新日時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updated_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">削除日時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleted_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値＝null</t>
+  </si>
+  <si>
     <t xml:space="preserve">document_catalog（資料目録テーブル）</t>
   </si>
   <si>
@@ -197,6 +221,9 @@
     <t xml:space="preserve">published_at</t>
   </si>
   <si>
+    <t xml:space="preserve">TIMESTAMP</t>
+  </si>
+  <si>
     <t xml:space="preserve">document_ledger（資料台帳テーブル）</t>
   </si>
   <si>
@@ -255,6 +282,12 @@
   </si>
   <si>
     <t xml:space="preserve">returned_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・すべてのテーブルに、以下の日付カラムを追加してください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　削除日付（default NULL）、更新日付、登録日付</t>
   </si>
   <si>
     <t xml:space="preserve">category_code（分類コードテーブル）</t>
@@ -560,10 +593,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="C5:C7 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -797,6 +830,61 @@
       <c r="F12" s="9"/>
       <c r="G12" s="10" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +909,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="C5:C7 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -838,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -871,10 +959,10 @@
     </row>
     <row r="3" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -889,15 +977,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -913,31 +1001,31 @@
     </row>
     <row r="5" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -953,10 +1041,10 @@
     </row>
     <row r="7" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -970,10 +1058,10 @@
     </row>
     <row r="8" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>30</v>
@@ -982,6 +1070,61 @@
       <c r="E8" s="9"/>
       <c r="F8" s="11"/>
       <c r="G8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1005,8 +1148,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="C5:C7 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1023,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1056,13 +1199,13 @@
     </row>
     <row r="3" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="7" t="s">
@@ -1072,15 +1215,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -1092,18 +1235,18 @@
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>30</v>
@@ -1119,10 +1262,10 @@
     </row>
     <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
@@ -1137,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -1148,6 +1291,61 @@
       <c r="E7" s="9"/>
       <c r="F7" s="11"/>
       <c r="G7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1195,10 +1393,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="C5:C7 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1215,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1254,46 +1452,46 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>30</v>
@@ -1309,10 +1507,10 @@
     </row>
     <row r="6" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>30</v>
@@ -1326,10 +1524,10 @@
     </row>
     <row r="7" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>30</v>
@@ -1344,7 +1542,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -1355,6 +1553,71 @@
       <c r="E8" s="9"/>
       <c r="F8" s="11"/>
       <c r="G8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1375,10 +1638,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1394,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1427,13 +1690,13 @@
     </row>
     <row r="3" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
@@ -1443,15 +1706,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -1464,6 +1727,61 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
+++ b/開発演習ドキュメント/図書管理システム/成果物テンプレート/20_外部設計/【チームささき】テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザ台帳テーブル" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t xml:space="preserve">returned_at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">・すべてのテーブルに、以下の日付カラムを追加してください。</t>
   </si>
   <si>
     <t xml:space="preserve">　削除日付（default NULL）、更新日付、登録日付</t>
@@ -596,7 +593,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="C5:C7 A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -909,7 +906,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="C5:C7 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1149,7 +1146,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="C5:C7 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1395,8 +1392,8 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="C5:C7 C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1609,14 +1606,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1640,8 +1632,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5:C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1657,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1693,7 +1685,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>56</v>
@@ -1706,15 +1698,15 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
